--- a/Truthtableproj1.xlsx
+++ b/Truthtableproj1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chapar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646CF43-4206-4F74-B811-DD95C07F7FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C69CA-6672-426D-9C87-D2492A11460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1532F85-2FB6-4E3C-828B-766720C85D02}"/>
+    <workbookView xWindow="-105" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{E1532F85-2FB6-4E3C-828B-766720C85D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="222">
   <si>
     <t>sw0 --&gt;</t>
   </si>
@@ -661,22 +661,53 @@
   </si>
   <si>
     <t>E0 = A0(A4 + A3(A2 + A1)) + A0A4(A3 + A2A1)</t>
+  </si>
+  <si>
+    <t>e0(alt)=</t>
+  </si>
+  <si>
+    <t>e1(alt)=</t>
+  </si>
+  <si>
+    <t>e2(alt)=</t>
+  </si>
+  <si>
+    <t>e3(alt)=</t>
+  </si>
+  <si>
+    <t>e4(alt)=</t>
+  </si>
+  <si>
+    <t>e5(alt)=</t>
+  </si>
+  <si>
+    <t>6 gates</t>
+  </si>
+  <si>
+    <t>8 gates</t>
+  </si>
+  <si>
+    <t>5 gates</t>
+  </si>
+  <si>
+    <t>7 gates</t>
+  </si>
+  <si>
+    <t>4 gates</t>
+  </si>
+  <si>
+    <t>3 gates</t>
+  </si>
+  <si>
+    <t>Best= E0, E1, E2, E3, E4, E5 (Alt) = 6+5+5+4+5+3 =23 +4 = 27 gates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -795,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -809,7 +840,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,13 +1249,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>124811</xdr:colOff>
+      <xdr:colOff>173797</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>256190</xdr:colOff>
+      <xdr:colOff>305176</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
@@ -1240,7 +1272,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6233949" y="5964621"/>
+          <a:off x="6269797" y="5973254"/>
           <a:ext cx="131379" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3636,13 +3668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>216776</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>348155</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
@@ -3691,13 +3723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>99848</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>40728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>231227</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>40728</xdr:rowOff>
@@ -4979,10 +5011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8307F9B8-3DAA-4141-A778-FF7A84310A11}">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -5971,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -6033,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>52</v>
       </c>
@@ -6086,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D20" s="3">
         <v>53</v>
       </c>
@@ -6139,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D21" s="3">
         <v>54</v>
       </c>
@@ -6192,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D22" s="3">
         <v>55</v>
       </c>
@@ -6245,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D23" s="3">
         <v>56</v>
       </c>
@@ -6298,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D24" s="3">
         <v>57</v>
       </c>
@@ -6351,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D25" s="3">
         <v>58</v>
       </c>
@@ -6404,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="3">
         <v>59</v>
       </c>
@@ -6457,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
@@ -6510,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>144</v>
       </c>
@@ -6552,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -6569,7 +6601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -6585,22 +6617,22 @@
       <c r="F30" t="s">
         <v>149</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="11"/>
-      <c r="S30" s="1" t="s">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
+      <c r="T30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="11"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="11"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -6613,30 +6645,30 @@
       <c r="D31" s="1">
         <v>101</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="O31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="S31" s="1" t="s">
+      <c r="R31" s="11"/>
+      <c r="T31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="U31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10" t="s">
+      <c r="V31" s="10"/>
+      <c r="W31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -6645,44 +6677,51 @@
       <c r="D32" s="1">
         <v>110</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>142</v>
       </c>
@@ -6692,41 +6731,51 @@
       <c r="C33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
       </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>143</v>
       </c>
@@ -6736,18 +6785,22 @@
       <c r="C34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
@@ -6757,12 +6810,12 @@
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
       <c r="U34" s="1">
         <v>0</v>
       </c>
@@ -6772,23 +6825,33 @@
       <c r="W34" s="1">
         <v>0</v>
       </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="3">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N35" s="3">
         <v>11</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
       <c r="O35" s="1">
         <v>0</v>
       </c>
@@ -6798,12 +6861,12 @@
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="3">
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>11</v>
       </c>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
       <c r="U35" s="1">
         <v>1</v>
       </c>
@@ -6813,21 +6876,27 @@
       <c r="W35" s="1">
         <v>1</v>
       </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="3">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="N36" s="3">
         <v>10</v>
       </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
@@ -6837,164 +6906,215 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="3">
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
         <v>10</v>
       </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
       <c r="U36" s="1">
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1">
         <v>1</v>
       </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F37" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="11"/>
-      <c r="S38" s="1" t="s">
+      <c r="Q38" s="10"/>
+      <c r="R38" s="11"/>
+      <c r="T38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
-      <c r="W38" s="11"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F39" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="O39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10" t="s">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="S39" s="1" t="s">
+      <c r="R39" s="11"/>
+      <c r="T39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="T39" s="9" t="s">
+      <c r="U39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10" t="s">
+      <c r="V39" s="10"/>
+      <c r="W39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F40" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="X40" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
       <c r="U41" s="1">
         <v>1</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
@@ -7004,12 +7124,12 @@
       <c r="Q42" s="1">
         <v>1</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T42" s="1">
-        <v>0</v>
-      </c>
       <c r="U42" s="1">
         <v>0</v>
       </c>
@@ -7019,16 +7139,26 @@
       <c r="W42" s="1">
         <v>0</v>
       </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F43" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M43" s="3">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N43" s="3">
         <v>11</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>167</v>
@@ -7039,11 +7169,11 @@
       <c r="Q43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S43" s="3">
+      <c r="R43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T43" s="3">
         <v>11</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>167</v>
@@ -7054,56 +7184,68 @@
       <c r="W43" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="X43" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M44" s="3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F44" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="N44" s="3">
         <v>10</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q44" s="1">
-        <v>1</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="3">
         <v>10</v>
       </c>
-      <c r="T44" s="1">
-        <v>0</v>
-      </c>
       <c r="U44" s="1">
         <v>0</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W44" s="1">
+      <c r="X44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M45" s="12" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="11"/>
-      <c r="S45" s="1" t="s">
+      <c r="Q45" s="10"/>
+      <c r="R45" s="11"/>
+      <c r="T45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="11"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="11"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -7133,7 +7275,7 @@
       <c r="V47" s="10"/>
       <c r="W47" s="11"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>159</v>
       </c>

--- a/Truthtableproj1.xlsx
+++ b/Truthtableproj1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chapar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C69CA-6672-426D-9C87-D2492A11460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646CF43-4206-4F74-B811-DD95C07F7FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{E1532F85-2FB6-4E3C-828B-766720C85D02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1532F85-2FB6-4E3C-828B-766720C85D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="209">
   <si>
     <t>sw0 --&gt;</t>
   </si>
@@ -661,53 +661,22 @@
   </si>
   <si>
     <t>E0 = A0(A4 + A3(A2 + A1)) + A0A4(A3 + A2A1)</t>
-  </si>
-  <si>
-    <t>e0(alt)=</t>
-  </si>
-  <si>
-    <t>e1(alt)=</t>
-  </si>
-  <si>
-    <t>e2(alt)=</t>
-  </si>
-  <si>
-    <t>e3(alt)=</t>
-  </si>
-  <si>
-    <t>e4(alt)=</t>
-  </si>
-  <si>
-    <t>e5(alt)=</t>
-  </si>
-  <si>
-    <t>6 gates</t>
-  </si>
-  <si>
-    <t>8 gates</t>
-  </si>
-  <si>
-    <t>5 gates</t>
-  </si>
-  <si>
-    <t>7 gates</t>
-  </si>
-  <si>
-    <t>4 gates</t>
-  </si>
-  <si>
-    <t>3 gates</t>
-  </si>
-  <si>
-    <t>Best= E0, E1, E2, E3, E4, E5 (Alt) = 6+5+5+4+5+3 =23 +4 = 27 gates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -826,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -840,8 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,13 +1217,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173797</xdr:colOff>
+      <xdr:colOff>124811</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>305176</xdr:colOff>
+      <xdr:colOff>256190</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
@@ -1272,7 +1240,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6269797" y="5973254"/>
+          <a:off x="6233949" y="5964621"/>
           <a:ext cx="131379" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3668,13 +3636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>216776</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>348155</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
@@ -3723,13 +3691,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>99848</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>40728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>231227</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>40728</xdr:rowOff>
@@ -5011,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8307F9B8-3DAA-4141-A778-FF7A84310A11}">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -6003,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -6065,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>52</v>
       </c>
@@ -6118,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D20" s="3">
         <v>53</v>
       </c>
@@ -6171,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D21" s="3">
         <v>54</v>
       </c>
@@ -6224,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D22" s="3">
         <v>55</v>
       </c>
@@ -6277,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D23" s="3">
         <v>56</v>
       </c>
@@ -6330,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D24" s="3">
         <v>57</v>
       </c>
@@ -6383,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D25" s="3">
         <v>58</v>
       </c>
@@ -6436,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D26" s="3">
         <v>59</v>
       </c>
@@ -6489,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
@@ -6542,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>144</v>
       </c>
@@ -6584,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -6601,7 +6569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -6617,22 +6585,22 @@
       <c r="F30" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="T30" s="1" t="s">
+      <c r="Q30" s="11"/>
+      <c r="S30" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="11"/>
+      <c r="W30" s="11"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -6645,30 +6613,30 @@
       <c r="D31" s="1">
         <v>101</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="N31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10" t="s">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R31" s="11"/>
-      <c r="T31" s="1" t="s">
+      <c r="Q31" s="11"/>
+      <c r="S31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="T31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10" t="s">
+      <c r="U31" s="10"/>
+      <c r="V31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="X31" s="11"/>
+      <c r="W31" s="11"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -6677,51 +6645,44 @@
       <c r="D32" s="1">
         <v>110</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="N32" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="O32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>142</v>
       </c>
@@ -6731,51 +6692,41 @@
       <c r="C33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" t="s">
         <v>195</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
       </c>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>143</v>
       </c>
@@ -6785,22 +6736,18 @@
       <c r="C34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
@@ -6810,12 +6757,12 @@
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
       <c r="U34" s="1">
         <v>0</v>
       </c>
@@ -6825,33 +6772,23 @@
       <c r="W34" s="1">
         <v>0</v>
       </c>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" t="s">
         <v>197</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="M35" s="3">
         <v>11</v>
       </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="1">
         <v>0</v>
       </c>
@@ -6861,12 +6798,12 @@
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="S35" s="3">
         <v>11</v>
       </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
       <c r="U35" s="1">
         <v>1</v>
       </c>
@@ -6876,27 +6813,21 @@
       <c r="W35" s="1">
         <v>1</v>
       </c>
-      <c r="X35" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="9" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" t="s">
         <v>198</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="L36" s="13"/>
+      <c r="M36" s="3">
         <v>10</v>
       </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
@@ -6906,259 +6837,198 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3">
+      <c r="S36" s="3">
         <v>10</v>
       </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
       <c r="U36" s="1">
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1">
         <v>1</v>
       </c>
-      <c r="X36" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="10" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
         <v>199</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" s="9" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" t="s">
         <v>200</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
-      <c r="T38" s="1" t="s">
+      <c r="Q38" s="11"/>
+      <c r="S38" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="11"/>
+      <c r="W38" s="11"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F39" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="10" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
         <v>201</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="N39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10" t="s">
+      <c r="O39" s="10"/>
+      <c r="P39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R39" s="11"/>
-      <c r="T39" s="1" t="s">
+      <c r="Q39" s="11"/>
+      <c r="S39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="U39" s="9" t="s">
+      <c r="T39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10" t="s">
+      <c r="U39" s="10"/>
+      <c r="V39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="X39" s="11"/>
+      <c r="W39" s="11"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F40" s="9" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="N40" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="O40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>165</v>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F41" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F42" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U42" s="1">
-        <v>0</v>
-      </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F43" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G43" s="10" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
         <v>183</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
         <v>11</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>167</v>
@@ -7169,11 +7039,11 @@
       <c r="Q43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="3">
+        <v>11</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="T43" s="3">
-        <v>11</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>167</v>
@@ -7184,68 +7054,56 @@
       <c r="W43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="X43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M44" s="3">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="3">
+        <v>10</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F44" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="N44" s="3">
-        <v>10</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
-      <c r="T44" s="3">
-        <v>10</v>
-      </c>
-      <c r="U44" s="1">
-        <v>0</v>
-      </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N45" s="12" t="s">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M45" s="12" t="s">
         <v>168</v>
       </c>
+      <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="11"/>
-      <c r="T45" s="1" t="s">
+      <c r="Q45" s="11"/>
+      <c r="S45" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="11"/>
+      <c r="W45" s="11"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -7275,7 +7133,7 @@
       <c r="V47" s="10"/>
       <c r="W47" s="11"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>159</v>
       </c>
